--- a/Projects/Metrics/DSRIP-TR015(Steve)/17_TR015 - Cardiovascular Monitoring - People with CVD and Schizophrenia - Technical Specification.xlsx
+++ b/Projects/Metrics/DSRIP-TR015(Steve)/17_TR015 - Cardiovascular Monitoring - People with CVD and Schizophrenia - Technical Specification.xlsx
@@ -2661,8 +2661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
